--- a/biology/Zoologie/Bowie_candidate/Bowie_candidate.xlsx
+++ b/biology/Zoologie/Bowie_candidate/Bowie_candidate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie candidate est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie candidate est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Cao Bằng au Viêt Nam[1],[2]. Elle se rencontre dans le parc national de Phia Oac - Phia Den.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Cao Bằng au Viêt Nam,. Elle se rencontre dans le parc national de Phia Oac - Phia Den.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,5 mm de long sur 5,1 mm et l'abdomen 5,7 mm de long sur 3,7 mm et la carapace de la femelle paratype mesure 7,5 mm de long sur 6,1 mm et l'abdomen 9,0 mm de long sur 6,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,5 mm de long sur 5,1 mm et l'abdomen 5,7 mm de long sur 3,7 mm et la carapace de la femelle paratype mesure 7,5 mm de long sur 6,1 mm et l'abdomen 9,0 mm de long sur 6,3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Jäger en 2022.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à Candidate, la chanson de David Bowie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
